--- a/StructureDefinition-tumor-measurement.xlsx
+++ b/StructureDefinition-tumor-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-measurement.xlsx
+++ b/StructureDefinition-tumor-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-measurement.xlsx
+++ b/StructureDefinition-tumor-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-measurement.xlsx
+++ b/StructureDefinition-tumor-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-measurement.xlsx
+++ b/StructureDefinition-tumor-measurement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}must-have-focus-or-specimen-invariant:Either `focus` OR `specimen` MUST be populated {(focus.exists() or specimen.exists()) and (focus.exists() and specimen.exists()).not()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1945,19 +1949,19 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>41</v>
@@ -1968,10 +1972,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1982,7 +1986,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -1991,19 +1995,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2053,13 +2057,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2088,10 +2092,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2102,7 +2106,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2111,16 +2115,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2171,19 +2175,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2206,10 +2210,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2220,28 +2224,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2291,19 +2295,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2326,10 +2330,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2340,7 +2344,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2352,16 +2356,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2387,13 +2391,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2411,19 +2415,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2446,21 +2450,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2472,16 +2476,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2531,19 +2535,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2555,7 +2559,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>41</v>
@@ -2566,14 +2570,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2592,16 +2596,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2651,7 +2655,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2675,7 +2679,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>41</v>
@@ -2686,14 +2690,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2712,16 +2716,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2771,7 +2775,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2783,7 +2787,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2795,7 +2799,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>41</v>
@@ -2806,14 +2810,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2826,25 +2830,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2893,7 +2897,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2905,7 +2909,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2917,7 +2921,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>41</v>
@@ -2928,10 +2932,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2951,20 +2955,20 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -3013,7 +3017,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3025,22 +3029,22 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>41</v>
@@ -3048,14 +3052,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3071,20 +3075,20 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -3133,7 +3137,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3145,19 +3149,19 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>41</v>
@@ -3168,14 +3172,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3191,19 +3195,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3253,7 +3257,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3265,19 +3269,19 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3288,10 +3292,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3299,34 +3303,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3351,13 +3355,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -3375,34 +3379,34 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3410,10 +3414,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3436,19 +3440,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3473,13 +3477,13 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3497,7 +3501,7 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3509,7 +3513,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3521,10 +3525,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3532,45 +3536,45 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3580,7 +3584,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3595,13 +3599,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3619,45 +3623,45 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3665,34 +3669,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3741,34 +3745,34 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>41</v>
@@ -3776,10 +3780,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3790,28 +3794,28 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3861,7 +3865,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3873,7 +3877,7 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -3882,13 +3886,13 @@
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>41</v>
@@ -3896,21 +3900,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -3919,22 +3923,22 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -3983,34 +3987,34 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>41</v>
@@ -4018,45 +4022,45 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -4105,34 +4109,34 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>41</v>
@@ -4140,10 +4144,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4154,7 +4158,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -4163,19 +4167,19 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4225,19 +4229,19 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -4246,13 +4250,13 @@
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>41</v>
@@ -4260,10 +4264,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4283,20 +4287,20 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -4345,7 +4349,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4357,22 +4361,22 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>41</v>
@@ -4380,10 +4384,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4394,7 +4398,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -4403,22 +4407,22 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -4467,45 +4471,45 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4516,7 +4520,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4528,19 +4532,19 @@
         <v>41</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4565,13 +4569,13 @@
         <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>41</v>
@@ -4589,19 +4593,19 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -4610,10 +4614,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4624,14 +4628,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4650,19 +4654,19 @@
         <v>41</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4687,13 +4691,13 @@
         <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>41</v>
@@ -4711,7 +4715,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4723,33 +4727,33 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4772,19 +4776,19 @@
         <v>41</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4833,7 +4837,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4845,7 +4849,7 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -4854,10 +4858,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -4868,10 +4872,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4882,7 +4886,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4894,16 +4898,16 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4929,13 +4933,13 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4953,45 +4957,45 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5002,10 +5006,10 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>41</v>
@@ -5014,19 +5018,19 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5051,11 +5055,11 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -5073,19 +5077,19 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -5094,10 +5098,10 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
@@ -5108,10 +5112,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5122,10 +5126,10 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>41</v>
@@ -5134,16 +5138,16 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5193,45 +5197,45 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5242,7 +5246,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -5254,16 +5258,16 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5313,45 +5317,45 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5374,19 +5378,19 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5435,7 +5439,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5447,7 +5451,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5456,10 +5460,10 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5470,10 +5474,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5484,7 +5488,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5496,13 +5500,13 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5553,13 +5557,13 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
@@ -5577,7 +5581,7 @@
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5588,14 +5592,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5614,16 +5618,16 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5673,7 +5677,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5685,7 +5689,7 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -5697,7 +5701,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5708,14 +5712,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5728,25 +5732,25 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5795,7 +5799,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5807,7 +5811,7 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -5819,7 +5823,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -5830,10 +5834,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5844,7 +5848,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -5856,13 +5860,13 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5913,19 +5917,19 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -5934,10 +5938,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -5948,10 +5952,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5962,7 +5966,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -5974,13 +5978,13 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6031,19 +6035,19 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -6052,10 +6056,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6066,10 +6070,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6080,7 +6084,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -6092,19 +6096,19 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6129,13 +6133,13 @@
         <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>41</v>
@@ -6153,31 +6157,31 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6188,10 +6192,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6214,19 +6218,19 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6251,13 +6255,13 @@
         <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -6275,7 +6279,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6287,19 +6291,19 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6310,10 +6314,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6324,7 +6328,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -6336,17 +6340,17 @@
         <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6395,19 +6399,19 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -6419,7 +6423,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6430,10 +6434,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6444,7 +6448,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6456,13 +6460,13 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6513,19 +6517,19 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -6534,10 +6538,10 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6548,10 +6552,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6571,19 +6575,19 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6633,7 +6637,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6645,7 +6649,7 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -6654,10 +6658,10 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6668,10 +6672,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6691,19 +6695,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6753,7 +6757,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6765,7 +6769,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -6774,10 +6778,10 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -6788,10 +6792,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6799,34 +6803,34 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6863,17 +6867,17 @@
         <v>41</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6885,7 +6889,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -6894,10 +6898,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -6908,10 +6912,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6922,7 +6926,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -6934,13 +6938,13 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6991,13 +6995,13 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>41</v>
@@ -7015,7 +7019,7 @@
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7026,14 +7030,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7052,16 +7056,16 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7111,7 +7115,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7123,7 +7127,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -7135,7 +7139,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7146,14 +7150,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7166,25 +7170,25 @@
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -7233,7 +7237,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7245,7 +7249,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -7257,7 +7261,7 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7268,10 +7272,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7279,10 +7283,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
@@ -7291,22 +7295,22 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -7331,13 +7335,13 @@
         <v>41</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>41</v>
@@ -7355,34 +7359,34 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>41</v>
@@ -7390,10 +7394,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7404,7 +7408,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -7413,22 +7417,22 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7477,45 +7481,45 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7526,7 +7530,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7538,19 +7542,19 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7575,13 +7579,13 @@
         <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
@@ -7599,19 +7603,19 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>41</v>
@@ -7620,10 +7624,10 @@
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7634,14 +7638,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7660,19 +7664,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7697,13 +7701,13 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
@@ -7721,7 +7725,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7733,33 +7737,33 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7785,16 +7789,16 @@
         <v>42</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7843,7 +7847,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7855,7 +7859,7 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
@@ -7864,10 +7868,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -7878,23 +7882,23 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -7903,22 +7907,22 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7967,7 +7971,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7979,7 +7983,7 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
@@ -7988,10 +7992,10 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8002,10 +8006,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8016,7 +8020,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -8028,13 +8032,13 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8085,13 +8089,13 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
@@ -8109,7 +8113,7 @@
         <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8120,14 +8124,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8146,16 +8150,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8205,7 +8209,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8217,7 +8221,7 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -8229,7 +8233,7 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8240,14 +8244,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8260,25 +8264,25 @@
         <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8327,7 +8331,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8339,7 +8343,7 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
@@ -8351,7 +8355,7 @@
         <v>41</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
@@ -8362,10 +8366,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8373,10 +8377,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8385,22 +8389,22 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8410,7 +8414,7 @@
         <v>41</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>41</v>
@@ -8425,13 +8429,13 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8449,34 +8453,34 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>41</v>
@@ -8484,10 +8488,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8498,7 +8502,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8507,22 +8511,22 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8547,11 +8551,11 @@
         <v>41</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>41</v>
@@ -8569,45 +8573,45 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8618,7 +8622,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>41</v>
@@ -8630,19 +8634,19 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8667,13 +8671,13 @@
         <v>41</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>41</v>
@@ -8691,19 +8695,19 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
@@ -8712,10 +8716,10 @@
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -8726,14 +8730,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8752,19 +8756,19 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8789,13 +8793,13 @@
         <v>41</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>41</v>
@@ -8813,7 +8817,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8825,33 +8829,33 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8877,16 +8881,16 @@
         <v>42</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -8935,7 +8939,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8947,7 +8951,7 @@
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
@@ -8956,10 +8960,10 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -8970,13 +8974,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>41</v>
@@ -8986,7 +8990,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -8995,22 +8999,22 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9059,7 +9063,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9071,7 +9075,7 @@
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
@@ -9080,10 +9084,10 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9094,10 +9098,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9108,7 +9112,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -9120,13 +9124,13 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9177,13 +9181,13 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
@@ -9201,7 +9205,7 @@
         <v>41</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9212,14 +9216,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9238,16 +9242,16 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9297,7 +9301,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9309,7 +9313,7 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
@@ -9321,7 +9325,7 @@
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9332,14 +9336,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9352,25 +9356,25 @@
         <v>41</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9419,7 +9423,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9431,7 +9435,7 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9443,7 +9447,7 @@
         <v>41</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9454,10 +9458,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9465,10 +9469,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9477,22 +9481,22 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>41</v>
@@ -9502,7 +9506,7 @@
         <v>41</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>41</v>
@@ -9517,13 +9521,13 @@
         <v>41</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>41</v>
@@ -9541,34 +9545,34 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>41</v>
@@ -9576,10 +9580,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9590,7 +9594,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>41</v>
@@ -9599,22 +9603,22 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9639,11 +9643,11 @@
         <v>41</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>41</v>
@@ -9661,45 +9665,45 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9710,7 +9714,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>41</v>
@@ -9722,19 +9726,19 @@
         <v>41</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9759,13 +9763,13 @@
         <v>41</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>41</v>
@@ -9783,19 +9787,19 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -9804,10 +9808,10 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9818,14 +9822,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9844,19 +9848,19 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -9881,13 +9885,13 @@
         <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>41</v>
@@ -9905,7 +9909,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9917,33 +9921,33 @@
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9969,16 +9973,16 @@
         <v>42</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -10027,7 +10031,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10039,7 +10043,7 @@
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
@@ -10048,10 +10052,10 @@
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10062,13 +10066,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>41</v>
@@ -10078,7 +10082,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -10087,22 +10091,22 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10151,7 +10155,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10163,7 +10167,7 @@
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
@@ -10172,10 +10176,10 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10186,10 +10190,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10200,7 +10204,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>41</v>
@@ -10212,13 +10216,13 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10269,13 +10273,13 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>41</v>
@@ -10293,7 +10297,7 @@
         <v>41</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10304,14 +10308,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10330,16 +10334,16 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10389,7 +10393,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10401,7 +10405,7 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
@@ -10413,7 +10417,7 @@
         <v>41</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>
@@ -10424,14 +10428,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10444,25 +10448,25 @@
         <v>41</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>41</v>
@@ -10511,7 +10515,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10523,7 +10527,7 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
@@ -10535,7 +10539,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10546,10 +10550,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10557,10 +10561,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>41</v>
@@ -10569,22 +10573,22 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -10609,13 +10613,13 @@
         <v>41</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>41</v>
@@ -10633,34 +10637,34 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>41</v>
@@ -10668,10 +10672,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10682,7 +10686,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
@@ -10691,22 +10695,22 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
@@ -10731,11 +10735,11 @@
         <v>41</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>41</v>
@@ -10753,45 +10757,45 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10802,7 +10806,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -10814,19 +10818,19 @@
         <v>41</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>41</v>
@@ -10851,13 +10855,13 @@
         <v>41</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>41</v>
@@ -10875,19 +10879,19 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
@@ -10896,10 +10900,10 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -10910,14 +10914,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10936,19 +10940,19 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>41</v>
@@ -10973,13 +10977,13 @@
         <v>41</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>41</v>
@@ -10997,7 +11001,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11009,33 +11013,33 @@
         <v>41</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11061,16 +11065,16 @@
         <v>42</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -11119,7 +11123,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11131,7 +11135,7 @@
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
@@ -11140,10 +11144,10 @@
         <v>41</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11154,13 +11158,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>41</v>
@@ -11170,7 +11174,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>41</v>
@@ -11179,22 +11183,22 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11243,7 +11247,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11255,7 +11259,7 @@
         <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>41</v>
@@ -11264,10 +11268,10 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11278,10 +11282,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11292,7 +11296,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>41</v>
@@ -11304,13 +11308,13 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11361,13 +11365,13 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>41</v>
@@ -11385,7 +11389,7 @@
         <v>41</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11396,14 +11400,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11422,16 +11426,16 @@
         <v>41</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11481,7 +11485,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11493,7 +11497,7 @@
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>41</v>
@@ -11505,7 +11509,7 @@
         <v>41</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>41</v>
@@ -11516,14 +11520,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11536,25 +11540,25 @@
         <v>41</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>41</v>
@@ -11603,7 +11607,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11615,7 +11619,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11627,7 +11631,7 @@
         <v>41</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>41</v>
@@ -11638,10 +11642,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11649,10 +11653,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -11661,22 +11665,22 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -11701,13 +11705,13 @@
         <v>41</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>41</v>
@@ -11725,34 +11729,34 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>41</v>
@@ -11760,10 +11764,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11774,7 +11778,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>41</v>
@@ -11783,22 +11787,22 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
@@ -11823,11 +11827,11 @@
         <v>41</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>41</v>
@@ -11845,45 +11849,45 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11894,7 +11898,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
@@ -11906,19 +11910,19 @@
         <v>41</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>41</v>
@@ -11943,13 +11947,13 @@
         <v>41</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>41</v>
@@ -11967,19 +11971,19 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>41</v>
@@ -11988,10 +11992,10 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>41</v>
@@ -12002,14 +12006,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12028,19 +12032,19 @@
         <v>41</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12065,13 +12069,13 @@
         <v>41</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>41</v>
@@ -12089,7 +12093,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12101,33 +12105,33 @@
         <v>41</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12153,16 +12157,16 @@
         <v>42</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12211,7 +12215,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12223,7 +12227,7 @@
         <v>41</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>41</v>
@@ -12232,10 +12236,10 @@
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-tumor-measurement.xlsx
+++ b/StructureDefinition-tumor-measurement.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$110</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="515">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -540,6 +540,7 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="21889-1"/&gt;
+    &lt;display value="Size Tumor"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1330,12 +1331,107 @@
     <t>Observation.component:longestDimension.code</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="33728-7"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Observation.component:longestDimension.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:longestDimension.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Observation.component:longestDimension.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.component:longestDimension.code.coding:loinc</t>
+  </si>
+  <si>
+    <t>loinc</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="33728-7"/&gt;
+  &lt;display value="Size.maximum dimension in Tumor"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:longestDimension.code.coding:snomed</t>
+  </si>
+  <si>
+    <t>snomed</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="371479009"/&gt;
+  &lt;display value="Tumor size, largest dimension"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:longestDimension.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.component:longestDimension.value[x]</t>
@@ -1381,13 +1477,36 @@
     <t>Observation.component:shortAxis.code</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="33729-5"/&gt;
-    &lt;display value="Size additional dimension in Tumor"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Observation.component:shortAxis.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:shortAxis.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:shortAxis.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component:shortAxis.code.coding:loinc</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="21889-1"/&gt;
+  &lt;display value="Size Tumor"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:shortAxis.code.coding:snomed</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="372299002"/&gt;
+  &lt;display value="Tumor size, dimension 1"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:shortAxis.code.text</t>
   </si>
   <si>
     <t>Observation.component:shortAxis.value[x]</t>
@@ -1426,6 +1545,38 @@
     <t>Observation.component:area.code</t>
   </si>
   <si>
+    <t>Observation.component:area.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:area.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:area.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component:area.code.coding:loinc</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="33729-5"/&gt;
+  &lt;display value="Area of the Tumor"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:area.code.coding:snomed</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="2372300005"/&gt;
+  &lt;display value="Tumor size, dimension 2"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:area.code.text</t>
+  </si>
+  <si>
     <t>Observation.component:area.value[x]</t>
   </si>
   <si>
@@ -1463,6 +1614,38 @@
   </si>
   <si>
     <t>Observation.component:volume.code</t>
+  </si>
+  <si>
+    <t>Observation.component:volume.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:volume.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:volume.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component:volume.code.coding:loinc</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="33729-5"/&gt;
+  &lt;display value="Volume of the Tumor"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:volume.code.coding:snomed</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="258261001"/&gt;
+  &lt;display value="Tumor volume"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:volume.code.text</t>
   </si>
   <si>
     <t>Observation.component:volume.value[x]</t>
@@ -1799,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP86"/>
+  <dimension ref="A1:AP110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1808,7 +1991,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.93359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1834,7 +2017,7 @@
     <col min="26" max="26" width="75.3359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="14.01953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -8414,7 +8597,7 @@
         <v>41</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>41</v>
@@ -8488,10 +8671,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8511,23 +8694,19 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>418</v>
+        <v>316</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>41</v>
       </c>
@@ -8551,11 +8730,13 @@
         <v>41</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>41</v>
@@ -8573,7 +8754,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8585,44 +8766,44 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>41</v>
@@ -8634,20 +8815,18 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>99</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>402</v>
+        <v>322</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>41</v>
       </c>
@@ -8671,43 +8850,43 @@
         <v>41</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>400</v>
+        <v>323</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
@@ -8716,10 +8895,10 @@
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -8730,18 +8909,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -8753,22 +8932,22 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>150</v>
+        <v>424</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>253</v>
+        <v>425</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>254</v>
+        <v>426</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>256</v>
+        <v>428</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8793,31 +8972,29 @@
         <v>41</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8835,38 +9012,40 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>261</v>
+        <v>431</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>262</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -8875,22 +9054,22 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>310</v>
+        <v>427</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>311</v>
+        <v>428</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -8900,7 +9079,7 @@
         <v>41</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>41</v>
+        <v>434</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>41</v>
@@ -8939,7 +9118,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8960,10 +9139,10 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>313</v>
+        <v>430</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -8974,13 +9153,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="B60" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="C60" t="s" s="2">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>41</v>
@@ -9002,7 +9181,7 @@
         <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>307</v>
+        <v>424</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>425</v>
@@ -9011,10 +9190,10 @@
         <v>426</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9024,7 +9203,7 @@
         <v>41</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>41</v>
+        <v>437</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>41</v>
@@ -9063,7 +9242,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9084,10 +9263,10 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9098,10 +9277,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9121,19 +9300,23 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>316</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>317</v>
+        <v>440</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
       </c>
@@ -9181,7 +9364,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>319</v>
+        <v>444</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9193,7 +9376,7 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
@@ -9202,10 +9385,10 @@
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>41</v>
+        <v>445</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9216,21 +9399,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>41</v>
@@ -9239,21 +9422,23 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>99</v>
+        <v>397</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
       </c>
@@ -9277,13 +9462,11 @@
         <v>41</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>41</v>
@@ -9301,80 +9484,80 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>101</v>
+        <v>403</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9399,13 +9582,13 @@
         <v>41</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9423,19 +9606,19 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9444,10 +9627,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9458,21 +9641,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9481,22 +9664,22 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
+        <v>253</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>393</v>
+        <v>254</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>394</v>
+        <v>255</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>41</v>
@@ -9506,7 +9689,7 @@
         <v>41</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>431</v>
+        <v>41</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>41</v>
@@ -9521,13 +9704,13 @@
         <v>41</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>41</v>
@@ -9545,13 +9728,13 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
@@ -9563,27 +9746,27 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>41</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9594,7 +9777,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>41</v>
@@ -9603,22 +9786,22 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>418</v>
+        <v>42</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9643,11 +9826,13 @@
         <v>41</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>41</v>
@@ -9665,13 +9850,13 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>41</v>
@@ -9683,29 +9868,31 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>41</v>
       </c>
@@ -9723,22 +9910,22 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>150</v>
+        <v>307</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9763,13 +9950,13 @@
         <v>41</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>41</v>
@@ -9787,16 +9974,16 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>64</v>
@@ -9808,10 +9995,10 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>95</v>
+        <v>386</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9822,21 +10009,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>41</v>
@@ -9848,20 +10035,16 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9885,13 +10068,13 @@
         <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>41</v>
@@ -9909,49 +10092,49 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>262</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9970,20 +10153,18 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
+        <v>99</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>41</v>
       </c>
@@ -10031,7 +10212,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>405</v>
+        <v>323</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10043,7 +10224,7 @@
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
@@ -10052,10 +10233,10 @@
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10066,47 +10247,45 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>439</v>
+        <v>327</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>382</v>
+        <v>101</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>383</v>
+        <v>107</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10155,7 +10334,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10167,7 +10346,7 @@
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
@@ -10176,10 +10355,10 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>387</v>
+        <v>95</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10190,10 +10369,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10201,7 +10380,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>52</v>
@@ -10213,19 +10392,23 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>316</v>
+        <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
       </c>
@@ -10249,13 +10432,13 @@
         <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>41</v>
@@ -10273,10 +10456,10 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>52</v>
@@ -10285,22 +10468,22 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>41</v>
+        <v>395</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>41</v>
@@ -10308,21 +10491,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -10334,17 +10517,15 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>99</v>
+        <v>317</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10393,19 +10574,19 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
@@ -10428,14 +10609,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>325</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10448,26 +10629,24 @@
         <v>41</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>98</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="O72" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>41</v>
       </c>
@@ -10503,19 +10682,19 @@
         <v>41</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10539,7 +10718,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10550,10 +10729,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10564,7 +10743,7 @@
         <v>52</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>41</v>
@@ -10576,19 +10755,19 @@
         <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>150</v>
+        <v>424</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>164</v>
+        <v>428</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -10613,37 +10792,35 @@
         <v>41</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>41</v>
@@ -10655,16 +10832,16 @@
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>395</v>
+        <v>41</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>171</v>
+        <v>430</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>172</v>
+        <v>431</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>41</v>
@@ -10672,18 +10849,20 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>52</v>
@@ -10698,19 +10877,19 @@
         <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>233</v>
+        <v>426</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>235</v>
+        <v>428</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
@@ -10720,7 +10899,7 @@
         <v>41</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>41</v>
+        <v>465</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>41</v>
@@ -10735,11 +10914,13 @@
         <v>41</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Y74" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z74" t="s" s="2">
-        <v>445</v>
+        <v>41</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>41</v>
@@ -10757,13 +10938,13 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
@@ -10775,29 +10956,31 @@
         <v>41</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>238</v>
+        <v>430</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>239</v>
+        <v>431</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>41</v>
       </c>
@@ -10815,22 +10998,22 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>150</v>
+        <v>424</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>245</v>
+        <v>428</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>41</v>
@@ -10840,7 +11023,7 @@
         <v>41</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>41</v>
+        <v>467</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>41</v>
@@ -10855,13 +11038,13 @@
         <v>41</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>41</v>
@@ -10879,16 +11062,16 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>64</v>
@@ -10900,10 +11083,10 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>95</v>
+        <v>430</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -10914,21 +11097,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
@@ -10937,22 +11120,22 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>253</v>
+        <v>440</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>256</v>
+        <v>443</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>41</v>
@@ -10977,13 +11160,13 @@
         <v>41</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>41</v>
@@ -11001,13 +11184,13 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>41</v>
@@ -11019,27 +11202,27 @@
         <v>41</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>260</v>
+        <v>445</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>261</v>
+        <v>446</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>262</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11050,7 +11233,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -11059,22 +11242,22 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>42</v>
+        <v>448</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>407</v>
+        <v>233</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>310</v>
+        <v>398</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -11099,13 +11282,11 @@
         <v>41</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>41</v>
@@ -11123,13 +11304,13 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>41</v>
@@ -11141,31 +11322,29 @@
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>41</v>
       </c>
@@ -11183,22 +11362,22 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>383</v>
+        <v>245</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11223,13 +11402,13 @@
         <v>41</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>41</v>
@@ -11247,16 +11426,16 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>64</v>
@@ -11268,10 +11447,10 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>386</v>
+        <v>95</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>387</v>
+        <v>250</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11282,21 +11461,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>41</v>
@@ -11308,16 +11487,20 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>316</v>
+        <v>150</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
       </c>
@@ -11341,13 +11524,13 @@
         <v>41</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>41</v>
@@ -11365,49 +11548,49 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>41</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11426,18 +11609,20 @@
         <v>41</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>99</v>
+        <v>406</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
       </c>
@@ -11485,7 +11670,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11497,7 +11682,7 @@
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>41</v>
@@ -11506,10 +11691,10 @@
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>41</v>
@@ -11520,45 +11705,47 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="D81" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>326</v>
+        <v>475</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>327</v>
+        <v>476</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>101</v>
+        <v>382</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>107</v>
+        <v>383</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>41</v>
@@ -11607,7 +11794,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11619,7 +11806,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11628,10 +11815,10 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>41</v>
+        <v>386</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>95</v>
+        <v>387</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>41</v>
@@ -11642,10 +11829,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11653,7 +11840,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>52</v>
@@ -11665,23 +11852,19 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>392</v>
+        <v>317</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>41</v>
       </c>
@@ -11705,13 +11888,13 @@
         <v>41</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>41</v>
@@ -11729,10 +11912,10 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>52</v>
@@ -11741,22 +11924,22 @@
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>395</v>
+        <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>172</v>
+        <v>320</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>41</v>
@@ -11764,21 +11947,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>41</v>
@@ -11787,23 +11970,21 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>418</v>
+        <v>98</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>397</v>
+        <v>99</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>233</v>
+        <v>322</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>41</v>
       </c>
@@ -11827,11 +12008,13 @@
         <v>41</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>458</v>
+        <v>41</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>41</v>
@@ -11849,80 +12032,80 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>396</v>
+        <v>323</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>401</v>
+        <v>326</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>403</v>
+        <v>101</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>41</v>
@@ -11947,13 +12130,13 @@
         <v>41</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>41</v>
@@ -11971,19 +12154,19 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>400</v>
+        <v>328</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>41</v>
@@ -11992,10 +12175,10 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>41</v>
@@ -12006,21 +12189,21 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -12029,22 +12212,22 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>253</v>
+        <v>392</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>254</v>
+        <v>393</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>255</v>
+        <v>394</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12069,13 +12252,13 @@
         <v>41</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>41</v>
@@ -12093,13 +12276,13 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>41</v>
@@ -12111,27 +12294,27 @@
         <v>41</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>259</v>
+        <v>395</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>262</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12142,7 +12325,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -12154,20 +12337,16 @@
         <v>41</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>406</v>
+        <v>317</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>41</v>
       </c>
@@ -12215,41 +12394,2957 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AC88" s="2"/>
+      <c r="AD88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="Y92" s="2"/>
+      <c r="Z92" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B95" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AG86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH86" t="s" s="2">
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G95" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AI86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
+      <c r="H95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AK95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AO86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP86" t="s" s="2">
+      <c r="AO95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AC103" s="2"/>
+      <c r="AD103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="Y107" s="2"/>
+      <c r="Z107" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP110" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP86">
+  <autoFilter ref="A1:AP110">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12259,7 +15354,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI109">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-tumor-measurement.xlsx
+++ b/StructureDefinition-tumor-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-measurement.xlsx
+++ b/StructureDefinition-tumor-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
